--- a/RawData/Hunter_Data.xlsx
+++ b/RawData/Hunter_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72580C97-DE08-49FE-8CE7-95B09F5EBA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6367AE26-3F05-4FE5-BE7D-EFA5893C5912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="870" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30795" yWindow="1665" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Gold</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>EXP</t>
   </si>
   <si>
     <r>
@@ -61,17 +46,189 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Data[{}]</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동료1</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>escription</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동료2</t>
+    <t>초보자</t>
+  </si>
+  <si>
+    <t>모든지 열심히 합니다.</t>
+  </si>
+  <si>
+    <t>초보자.gif</t>
+  </si>
+  <si>
+    <t>전사 1</t>
+  </si>
+  <si>
+    <t>힘이 쎈 부족원입니다.</t>
+  </si>
+  <si>
+    <t>전사 1.gif</t>
+  </si>
+  <si>
+    <t>전사 2</t>
+  </si>
+  <si>
+    <t>부족장입니다.</t>
+  </si>
+  <si>
+    <t>전사 2.gif</t>
+  </si>
+  <si>
+    <t>전사 3</t>
+  </si>
+  <si>
+    <t>조금 느리지만 힘이 쎈 족장입니다.</t>
+  </si>
+  <si>
+    <t>전사 3.gif</t>
+  </si>
+  <si>
+    <t>궁수 1</t>
+  </si>
+  <si>
+    <t>멀리 쏘는 건 자신 있습니다.</t>
+  </si>
+  <si>
+    <t>궁수 1.gif</t>
+  </si>
+  <si>
+    <t>궁수 2</t>
+  </si>
+  <si>
+    <t>날쎈 궁수입니다.</t>
+  </si>
+  <si>
+    <t>궁수 2.gif</t>
+  </si>
+  <si>
+    <t>궁수 3</t>
+  </si>
+  <si>
+    <t>궁수 중엔 내가 제일 쎕니다.</t>
+  </si>
+  <si>
+    <t>궁수 3.gif</t>
+  </si>
+  <si>
+    <t>마법사 1</t>
+  </si>
+  <si>
+    <t>20년 동안 모솔입니다.</t>
+  </si>
+  <si>
+    <t>마법사 1.gif</t>
+  </si>
+  <si>
+    <t>마법사 2</t>
+  </si>
+  <si>
+    <t>25년 동안 모솔입니다.</t>
+  </si>
+  <si>
+    <t>마법사 2.gif</t>
+  </si>
+  <si>
+    <t>마법사 3</t>
+  </si>
+  <si>
+    <t>30년 동안 모솔입니다.</t>
+  </si>
+  <si>
+    <t>마법사 3.gif</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>TK</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ttack_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>Speed</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Modeling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Skill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>ID</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -121,12 +278,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,7 +474,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -320,7 +483,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -634,92 +797,370 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G2" s="3">
+        <v>210</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>170</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>160</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>150</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>13.32</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>220</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>210</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>270</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>260</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3">
         <v>27</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
+      <c r="F11" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G11" s="3">
+        <v>250</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
